--- a/Hospital_Management_System_HMS/HMS_DATA/AppData.xlsx
+++ b/Hospital_Management_System_HMS/HMS_DATA/AppData.xlsx
@@ -5,28 +5,44 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahan\Desktop\Tek\Hospital_Management_System_HMS\HMS_DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahan\git\repository\Hospital_Management_System_HMS\HMS_DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AFE68F-EB82-450B-A9C7-FC763939F05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC66F0-C155-4AE2-9C81-552C09C2BC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="8710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="1780" windowWidth="14400" windowHeight="8710" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
     <sheet name="User_Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Patient1" sheetId="3" r:id="rId3"/>
+    <sheet name="Patient2" sheetId="4" r:id="rId4"/>
+    <sheet name="Patient3" sheetId="5" r:id="rId5"/>
+    <sheet name="Patient4" sheetId="6" r:id="rId6"/>
+    <sheet name="Patient5" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>Full Name</t>
   </si>
@@ -116,6 +132,75 @@
   </si>
   <si>
     <t>John Doey</t>
+  </si>
+  <si>
+    <t>12 Park Street New York</t>
+  </si>
+  <si>
+    <t>45 Lake View Road Chicago</t>
+  </si>
+  <si>
+    <t>89 MG Road Banglore</t>
+  </si>
+  <si>
+    <t>230 Sunset Blvd Los Angeles</t>
+  </si>
+  <si>
+    <t>77 King Street Toronto</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Medical History</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>8123456790</t>
+  </si>
+  <si>
+    <t>7690482153</t>
+  </si>
+  <si>
+    <t>9347618205</t>
+  </si>
+  <si>
+    <t>6583921470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fever </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type 2 Diabetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension Follow-up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migraine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chest Pain </t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
 </sst>
 </file>
@@ -168,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -179,6 +264,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,7 +556,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F6"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F48F780-9093-47E7-962A-32A88C22CFE5}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -697,4 +790,366 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75CAD9-A6DC-4EA1-B67B-CC70625CE4B4}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:johndoe1@test.com" xr:uid="{C5FFA62B-17DC-4DB1-8D63-A4C5117059E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1DFB9D-B5BD-4525-9443-64B4971BCA2E}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:sarah.smith@test.com" xr:uid="{F9E53F35-5462-4A40-86F9-D0DA02451B14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A889174-AD1C-49B4-8F86-46035CD7BF5C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:amit.k@test.com" xr:uid="{7115587E-B82C-4E39-8DAD-B7EBF9F2D047}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B57403-7080-4617-AB05-270F9E339F61}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:emily.j@test.com" xr:uid="{D9049E55-C357-4DD9-A097-07DBFEFF5037}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ED607E-B04A-4BC9-9A0F-2890028E724A}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="mailto:michael.b@test.com" xr:uid="{5D3A53DA-6877-4897-BCAB-270D5AAAD4ED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>